--- a/Data/Raw/Share_of_forest_2018.xlsx
+++ b/Data/Raw/Share_of_forest_2018.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benculberson/Documents/Duke /Spring 2022/Environmental Data Analytics/Shapiro_DeAngeli_Culberson_ENV872_EDA_FinalProject/Data/Raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1D1EB23B-5B22-DA49-9843-45851DB11788}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8940FF12-0324-0343-82D6-B8C84BB67E91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16420" xr2:uid="{D8979FA4-7038-0A4B-99D3-D3058FD3B9C3}"/>
+    <workbookView xWindow="11600" yWindow="840" windowWidth="28800" windowHeight="16420" xr2:uid="{D8979FA4-7038-0A4B-99D3-D3058FD3B9C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,12 +35,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
     <t xml:space="preserve">Country </t>
-  </si>
-  <si>
-    <t>Year</t>
   </si>
   <si>
     <t>Share of surface occupied by forest (% of total)</t>
@@ -476,25 +473,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E677F25-056F-0C47-A289-5487418B1157}">
-  <dimension ref="A1:CP6"/>
+  <dimension ref="A1:CO6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="13.1640625" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:94" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:93" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="BR1" t="s">
         <v>2</v>
       </c>
       <c r="BS1" t="s">
@@ -557,375 +551,354 @@
       <c r="CL1" t="s">
         <v>22</v>
       </c>
-      <c r="CM1" t="s">
+    </row>
+    <row r="2" spans="1:93" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2">
+        <v>24.091026809588353</v>
+      </c>
+      <c r="BR2">
+        <v>12.02551586851374</v>
+      </c>
+      <c r="BS2">
+        <v>718.7</v>
+      </c>
+      <c r="BT2">
+        <v>118.84</v>
+      </c>
+      <c r="BU2">
+        <v>47.54</v>
+      </c>
+      <c r="BV2">
+        <v>1241.3399999999999</v>
+      </c>
+      <c r="BW2">
+        <v>2424.58</v>
+      </c>
+      <c r="BX2">
+        <v>54.41</v>
+      </c>
+      <c r="BY2">
+        <v>148.54</v>
+      </c>
+      <c r="BZ2">
+        <v>-28.36</v>
+      </c>
+      <c r="CA2">
+        <v>571.38</v>
+      </c>
+      <c r="CB2">
+        <v>133.28</v>
+      </c>
+      <c r="CC2">
+        <v>3374.99</v>
+      </c>
+      <c r="CD2">
+        <v>3346.63</v>
+      </c>
+      <c r="CE2">
+        <v>305.33</v>
+      </c>
+      <c r="CF2">
+        <v>83.17</v>
+      </c>
+      <c r="CG2">
+        <v>2.23321722000001</v>
+      </c>
+      <c r="CH2">
+        <v>2.58193039585644E-2</v>
+      </c>
+      <c r="CI2">
+        <v>4.3638200339947003E-2</v>
+      </c>
+      <c r="CJ2">
+        <v>5.33</v>
+      </c>
+      <c r="CK2">
+        <v>34.03</v>
+      </c>
+      <c r="CL2">
+        <v>0.35198360000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:93" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3">
+        <v>67.97</v>
+      </c>
+      <c r="BR3">
+        <v>-32.049999999999997</v>
+      </c>
+      <c r="BS3">
+        <v>191.68</v>
+      </c>
+      <c r="BT3">
+        <v>23.92</v>
+      </c>
+      <c r="BU3">
+        <v>1186.77</v>
+      </c>
+      <c r="BV3">
+        <v>1154.72</v>
+      </c>
+      <c r="BW3">
+        <v>204.56</v>
+      </c>
+      <c r="BX3">
+        <v>6.8</v>
+      </c>
+      <c r="BY3">
+        <v>3.5954719613172897E-2</v>
+      </c>
+      <c r="BZ3">
+        <v>9.2164078209381495E-2</v>
+      </c>
+      <c r="CA3">
+        <v>1.5952328507793101E-2</v>
+      </c>
+      <c r="CB3">
+        <v>2.4</v>
+      </c>
+      <c r="CC3">
+        <v>91.616</v>
+      </c>
+      <c r="CD3">
+        <v>0.98449330000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:93" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4">
+        <v>-0.81355200000000005</v>
+      </c>
+      <c r="BR4">
+        <v>21.40983155723616</v>
+      </c>
+      <c r="BS4">
+        <v>10.393117619626214</v>
+      </c>
+      <c r="BT4">
+        <v>22.67</v>
+      </c>
+      <c r="BU4">
+        <v>0.12</v>
+      </c>
+      <c r="BV4">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="BW4">
+        <v>1.26</v>
+      </c>
+      <c r="BX4">
+        <v>5.93</v>
+      </c>
+      <c r="BY4">
+        <v>1.06</v>
+      </c>
+      <c r="BZ4">
+        <v>10.72</v>
+      </c>
+      <c r="CA4">
+        <v>0.49</v>
+      </c>
+      <c r="CB4">
+        <v>2.75</v>
+      </c>
+      <c r="CC4">
+        <v>30.57</v>
+      </c>
+      <c r="CD4">
+        <v>41.29</v>
+      </c>
+      <c r="CE4">
+        <v>1.31</v>
+      </c>
+      <c r="CF4">
+        <v>0.91</v>
+      </c>
+      <c r="CG4">
+        <v>4.77136418369221</v>
+      </c>
+      <c r="CH4">
+        <v>2.1641946943581599E-3</v>
+      </c>
+      <c r="CI4">
+        <v>5.2989749518341303E-2</v>
+      </c>
+      <c r="CJ4">
+        <v>1.69</v>
+      </c>
+      <c r="CK4">
+        <v>37.191000000000003</v>
+      </c>
+      <c r="CL4">
+        <v>-0.32788020000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:93" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5">
+        <v>29.4520547945205</v>
+      </c>
+      <c r="BR5">
+        <v>-6.1524700000000002E-2</v>
+      </c>
+      <c r="BS5">
+        <v>-0.47499340000000001</v>
+      </c>
+      <c r="BT5">
+        <v>23.875004192239331</v>
+      </c>
+      <c r="BU5">
+        <v>14.047533279066075</v>
+      </c>
+      <c r="BV5">
+        <v>61.37</v>
+      </c>
+      <c r="BW5">
+        <v>10.029999999999999</v>
+      </c>
+      <c r="BX5">
+        <v>4.99</v>
+      </c>
+      <c r="BY5">
+        <v>70.44</v>
+      </c>
+      <c r="BZ5">
+        <v>138.51</v>
+      </c>
+      <c r="CA5">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="CB5">
+        <v>18.68</v>
+      </c>
+      <c r="CC5">
+        <v>2.48</v>
+      </c>
+      <c r="CD5">
+        <v>15.39</v>
+      </c>
+      <c r="CE5">
+        <v>6.48</v>
+      </c>
+      <c r="CF5">
+        <v>232.34</v>
+      </c>
+      <c r="CG5">
+        <v>234.82</v>
+      </c>
+      <c r="CH5">
+        <v>35.64</v>
+      </c>
+      <c r="CI5">
+        <v>13.77</v>
+      </c>
+      <c r="CJ5">
+        <v>0.91948463774990197</v>
+      </c>
+      <c r="CK5">
+        <v>2.2657871927771401E-2</v>
+      </c>
+      <c r="CL5">
+        <v>2.90757238533416E-2</v>
+      </c>
+      <c r="CM5">
+        <v>2.34</v>
+      </c>
+      <c r="CN5">
+        <v>46.906999999999996</v>
+      </c>
+      <c r="CO5">
+        <v>1.3624900000000001E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:93" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6">
+        <v>-0.1755948</v>
+      </c>
+      <c r="BR6">
+        <v>2.5704500000000002E-2</v>
+      </c>
+      <c r="BS6">
+        <v>34.258049915944653</v>
+      </c>
+      <c r="BT6">
+        <v>11.981870202564114</v>
+      </c>
+      <c r="BU6">
+        <v>5.82</v>
+      </c>
+      <c r="BV6">
+        <v>1.03</v>
+      </c>
+      <c r="BW6">
+        <v>1.58</v>
+      </c>
+      <c r="BX6">
+        <v>8.14</v>
+      </c>
+      <c r="BY6">
+        <v>23.63</v>
+      </c>
+      <c r="BZ6">
+        <v>0</v>
+      </c>
+      <c r="CA6">
+        <v>2.37</v>
+      </c>
+      <c r="CB6">
+        <v>1.91</v>
+      </c>
+      <c r="CC6">
+        <v>0.85</v>
+      </c>
+      <c r="CD6">
+        <v>3.66</v>
+      </c>
+      <c r="CE6">
+        <v>35.24</v>
+      </c>
+      <c r="CF6">
+        <v>37.15</v>
+      </c>
+      <c r="CG6">
+        <v>9.9499999999999993</v>
+      </c>
+      <c r="CH6">
+        <v>3.42</v>
+      </c>
+      <c r="CI6">
+        <v>6.8919771688573203E-2</v>
+      </c>
+      <c r="CJ6" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:94" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2">
-        <v>2018</v>
-      </c>
-      <c r="C2">
-        <v>24.091026809588353</v>
-      </c>
-      <c r="BS2">
-        <v>12.02551586851374</v>
-      </c>
-      <c r="BT2">
-        <v>718.7</v>
-      </c>
-      <c r="BU2">
-        <v>118.84</v>
-      </c>
-      <c r="BV2">
-        <v>47.54</v>
-      </c>
-      <c r="BW2">
-        <v>1241.3399999999999</v>
-      </c>
-      <c r="BX2">
-        <v>2424.58</v>
-      </c>
-      <c r="BY2">
-        <v>54.41</v>
-      </c>
-      <c r="BZ2">
-        <v>148.54</v>
-      </c>
-      <c r="CA2">
-        <v>-28.36</v>
-      </c>
-      <c r="CB2">
-        <v>571.38</v>
-      </c>
-      <c r="CC2">
-        <v>133.28</v>
-      </c>
-      <c r="CD2">
-        <v>3374.99</v>
-      </c>
-      <c r="CE2">
-        <v>3346.63</v>
-      </c>
-      <c r="CF2">
-        <v>305.33</v>
-      </c>
-      <c r="CG2">
-        <v>83.17</v>
-      </c>
-      <c r="CH2">
-        <v>2.23321722000001</v>
-      </c>
-      <c r="CI2">
-        <v>2.58193039585644E-2</v>
-      </c>
-      <c r="CJ2">
-        <v>4.3638200339947003E-2</v>
-      </c>
-      <c r="CK2">
-        <v>5.33</v>
-      </c>
-      <c r="CL2">
-        <v>34.03</v>
-      </c>
-      <c r="CM2">
-        <v>0.35198360000000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:94" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3">
-        <v>2018</v>
-      </c>
-      <c r="C3">
-        <v>67.97</v>
-      </c>
-      <c r="BS3">
-        <v>-32.049999999999997</v>
-      </c>
-      <c r="BT3">
-        <v>191.68</v>
-      </c>
-      <c r="BU3">
-        <v>23.92</v>
-      </c>
-      <c r="BV3">
-        <v>1186.77</v>
-      </c>
-      <c r="BW3">
-        <v>1154.72</v>
-      </c>
-      <c r="BX3">
-        <v>204.56</v>
-      </c>
-      <c r="BY3">
-        <v>6.8</v>
-      </c>
-      <c r="BZ3">
-        <v>3.5954719613172897E-2</v>
-      </c>
-      <c r="CA3">
-        <v>9.2164078209381495E-2</v>
-      </c>
-      <c r="CB3">
-        <v>1.5952328507793101E-2</v>
-      </c>
-      <c r="CC3">
-        <v>2.4</v>
-      </c>
-      <c r="CD3">
-        <v>91.616</v>
-      </c>
-      <c r="CE3">
-        <v>0.98449330000000002</v>
-      </c>
-    </row>
-    <row r="4" spans="1:94" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4">
-        <v>2018</v>
-      </c>
-      <c r="C4">
-        <v>-0.81355200000000005</v>
-      </c>
-      <c r="BS4">
-        <v>21.40983155723616</v>
-      </c>
-      <c r="BT4">
-        <v>10.393117619626214</v>
-      </c>
-      <c r="BU4">
-        <v>22.67</v>
-      </c>
-      <c r="BV4">
-        <v>0.12</v>
-      </c>
-      <c r="BW4">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="BX4">
-        <v>1.26</v>
-      </c>
-      <c r="BY4">
-        <v>5.93</v>
-      </c>
-      <c r="BZ4">
-        <v>1.06</v>
-      </c>
-      <c r="CA4">
-        <v>10.72</v>
-      </c>
-      <c r="CB4">
-        <v>0.49</v>
-      </c>
-      <c r="CC4">
-        <v>2.75</v>
-      </c>
-      <c r="CD4">
-        <v>30.57</v>
-      </c>
-      <c r="CE4">
-        <v>41.29</v>
-      </c>
-      <c r="CF4">
-        <v>1.31</v>
-      </c>
-      <c r="CG4">
-        <v>0.91</v>
-      </c>
-      <c r="CH4">
-        <v>4.77136418369221</v>
-      </c>
-      <c r="CI4">
-        <v>2.1641946943581599E-3</v>
-      </c>
-      <c r="CJ4">
-        <v>5.2989749518341303E-2</v>
-      </c>
-      <c r="CK4">
-        <v>1.69</v>
-      </c>
-      <c r="CL4">
-        <v>37.191000000000003</v>
-      </c>
-      <c r="CM4">
-        <v>-0.32788020000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:94" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5">
-        <v>2018</v>
-      </c>
-      <c r="C5">
-        <v>29.4520547945205</v>
-      </c>
-      <c r="BS5">
-        <v>-6.1524700000000002E-2</v>
-      </c>
-      <c r="BT5">
-        <v>-0.47499340000000001</v>
-      </c>
-      <c r="BU5">
-        <v>23.875004192239331</v>
-      </c>
-      <c r="BV5">
-        <v>14.047533279066075</v>
-      </c>
-      <c r="BW5">
-        <v>61.37</v>
-      </c>
-      <c r="BX5">
-        <v>10.029999999999999</v>
-      </c>
-      <c r="BY5">
-        <v>4.99</v>
-      </c>
-      <c r="BZ5">
-        <v>70.44</v>
-      </c>
-      <c r="CA5">
-        <v>138.51</v>
-      </c>
-      <c r="CB5">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="CC5">
-        <v>18.68</v>
-      </c>
-      <c r="CD5">
-        <v>2.48</v>
-      </c>
-      <c r="CE5">
-        <v>15.39</v>
-      </c>
-      <c r="CF5">
-        <v>6.48</v>
-      </c>
-      <c r="CG5">
-        <v>232.34</v>
-      </c>
-      <c r="CH5">
-        <v>234.82</v>
-      </c>
-      <c r="CI5">
-        <v>35.64</v>
-      </c>
-      <c r="CJ5">
-        <v>13.77</v>
-      </c>
-      <c r="CK5">
-        <v>0.91948463774990197</v>
-      </c>
-      <c r="CL5">
-        <v>2.2657871927771401E-2</v>
-      </c>
-      <c r="CM5">
-        <v>2.90757238533416E-2</v>
-      </c>
-      <c r="CN5">
-        <v>2.34</v>
-      </c>
-      <c r="CO5">
-        <v>46.906999999999996</v>
-      </c>
-      <c r="CP5">
-        <v>1.3624900000000001E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:94" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6">
-        <v>2018</v>
-      </c>
-      <c r="C6">
-        <v>-0.1755948</v>
-      </c>
-      <c r="BS6">
-        <v>2.5704500000000002E-2</v>
-      </c>
-      <c r="BT6">
-        <v>34.258049915944653</v>
-      </c>
-      <c r="BU6">
-        <v>11.981870202564114</v>
-      </c>
-      <c r="BV6">
-        <v>5.82</v>
-      </c>
-      <c r="BW6">
-        <v>1.03</v>
-      </c>
-      <c r="BX6">
-        <v>1.58</v>
-      </c>
-      <c r="BY6">
-        <v>8.14</v>
-      </c>
-      <c r="BZ6">
-        <v>23.63</v>
-      </c>
-      <c r="CA6">
-        <v>0</v>
-      </c>
-      <c r="CB6">
-        <v>2.37</v>
-      </c>
-      <c r="CC6">
-        <v>1.91</v>
-      </c>
-      <c r="CD6">
-        <v>0.85</v>
-      </c>
-      <c r="CE6">
-        <v>3.66</v>
-      </c>
-      <c r="CF6">
-        <v>35.24</v>
-      </c>
-      <c r="CG6">
-        <v>37.15</v>
-      </c>
-      <c r="CH6">
-        <v>9.9499999999999993</v>
-      </c>
-      <c r="CI6">
-        <v>3.42</v>
-      </c>
-      <c r="CJ6">
-        <v>6.8919771688573203E-2</v>
-      </c>
       <c r="CK6" t="s">
-        <v>24</v>
-      </c>
-      <c r="CL6" t="s">
-        <v>24</v>
+        <v>23</v>
+      </c>
+      <c r="CL6">
+        <v>4.32</v>
       </c>
       <c r="CM6">
-        <v>4.32</v>
+        <v>18.475999999999999</v>
       </c>
       <c r="CN6">
-        <v>18.475999999999999</v>
-      </c>
-      <c r="CO6">
         <v>-1.54676E-2</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:CP6">
-    <sortCondition ref="B2:B6"/>
-  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>